--- a/output/planilhas/leilaoimoveis_eusebio-ce.xlsx
+++ b/output/planilhas/leilaoimoveis_eusebio-ce.xlsx
@@ -538,7 +538,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -586,15 +586,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>8083</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>37178</t>
-        </is>
+      <c r="Q2" t="n">
+        <v>8083</v>
+      </c>
+      <c r="R2" t="n">
+        <v>37178</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -610,7 +606,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -648,7 +644,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -656,15 +652,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>9288</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>9288</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -680,7 +672,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -722,7 +714,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -730,15 +722,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>9886</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q4" t="n">
+        <v>9886</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -754,7 +742,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -794,7 +782,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -802,15 +790,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -826,7 +810,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -868,7 +852,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -876,15 +860,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>9010</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q6" t="n">
+        <v>9010</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -900,7 +880,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -942,7 +922,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -950,15 +930,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>17516</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q7" t="n">
+        <v>17516</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -974,7 +950,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1016,7 +992,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1024,15 +1000,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>10329</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>38155</t>
-        </is>
+      <c r="Q8" t="n">
+        <v>10329</v>
+      </c>
+      <c r="R8" t="n">
+        <v>38155</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1048,7 +1020,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1090,7 +1062,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1098,15 +1070,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>10292</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>40372</t>
-        </is>
+      <c r="Q9" t="n">
+        <v>10292</v>
+      </c>
+      <c r="R9" t="n">
+        <v>40372</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1122,7 +1090,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1164,7 +1132,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1172,15 +1140,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>53395</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>000051204</t>
-        </is>
+      <c r="Q10" t="n">
+        <v>53395</v>
+      </c>
+      <c r="R10" t="n">
+        <v>51204</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1196,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1234,7 +1198,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1242,15 +1206,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>17494</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q11" t="n">
+        <v>17494</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1266,7 +1226,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1308,7 +1268,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1316,15 +1276,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>21556</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q12" t="n">
+        <v>21556</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1340,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1382,7 +1338,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1390,15 +1346,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>21729</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q13" t="n">
+        <v>21729</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1414,7 +1366,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1454,7 +1406,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1462,15 +1414,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>21682</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q14" t="n">
+        <v>21682</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1486,7 +1434,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1526,7 +1474,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1534,15 +1482,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>21470</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q15" t="n">
+        <v>21470</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1558,7 +1502,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1600,7 +1544,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1608,15 +1552,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>17623</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q16" t="n">
+        <v>17623</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1632,7 +1572,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1674,7 +1614,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1682,15 +1622,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>21658</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q17" t="n">
+        <v>21658</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -1706,7 +1642,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1748,7 +1684,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1756,15 +1692,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>21493</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q18" t="n">
+        <v>21493</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -1780,7 +1712,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1822,7 +1754,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1830,15 +1762,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>21509</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q19" t="n">
+        <v>21509</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -1854,7 +1782,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1896,7 +1824,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1904,15 +1832,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>16772</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q20" t="n">
+        <v>16772</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -1928,7 +1852,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1968,7 +1892,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1976,15 +1900,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>8982</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q21" t="n">
+        <v>8982</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2000,7 +1920,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2042,7 +1962,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2050,15 +1970,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>8567</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>37002</t>
-        </is>
+      <c r="Q22" t="n">
+        <v>8567</v>
+      </c>
+      <c r="R22" t="n">
+        <v>37002</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2074,7 +1990,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2106,7 +2022,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2115,15 +2031,11 @@
 </t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>6870</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0103009196900000</t>
-        </is>
+      <c r="Q23" t="n">
+        <v>6870</v>
+      </c>
+      <c r="R23" t="n">
+        <v>103009196900000</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2139,7 +2051,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2187,15 +2099,11 @@
           <t xml:space="preserve"> Baldissera Leiloeiros </t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>9273</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q24" t="n">
+        <v>9273</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2211,7 +2119,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2251,7 +2159,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2259,15 +2167,11 @@
           <t xml:space="preserve"> GP Leilões </t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>10845</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>40768</t>
-        </is>
+      <c r="Q25" t="n">
+        <v>10845</v>
+      </c>
+      <c r="R25" t="n">
+        <v>40768</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2283,7 +2187,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2325,7 +2229,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2333,15 +2237,11 @@
           <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>8272</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q26" t="n">
+        <v>8272</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2357,7 +2257,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2399,7 +2299,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2407,15 +2307,11 @@
           <t xml:space="preserve"> Rocha Leilões </t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>23862</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0101000000100431</t>
-        </is>
+      <c r="Q27" t="n">
+        <v>23862</v>
+      </c>
+      <c r="R27" t="n">
+        <v>101000000100431</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2431,7 +2327,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2461,7 +2357,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2483,7 +2379,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2513,7 +2409,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2539,7 +2435,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2569,7 +2465,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2595,7 +2491,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2627,7 +2523,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">

--- a/output/planilhas/leilaoimoveis_eusebio-ce.xlsx
+++ b/output/planilhas/leilaoimoveis_eusebio-ce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,139 +2146,139 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297160</v>
+        <v>136500</v>
       </c>
       <c r="C23" t="n">
-        <v>180</v>
+        <v>244.2</v>
       </c>
       <c r="D23" t="n">
-        <v>158.7</v>
+        <v>78.77</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>136500</v>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>460000</v>
+        <v>210000</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>10/04/2024</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
+          <t>Leilão SFI Caixa</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leilão Caixa </t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>7096</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>40207</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>RUA R SANTA CATARINA, N. 231, 216LOTEAMENTO PARQUE,N. 231 0, PARQUE HAWAI - CEP: 61761-240, EUSEBIO - CEARA</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-lagoinha-2-quartos-1-vaga-na-garagem-2-wc-sala-cozinha-indisponibilid-imovel-caixa-economica-federal-cef-1551855-1444407913184-venda-direta-caixa</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>297160</v>
+      </c>
+      <c r="C24" t="n">
+        <v>180</v>
+      </c>
+      <c r="D24" t="n">
+        <v>158.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>460000</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>24/10/2023</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
           <t>Venda Direta Caixa</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t xml:space="preserve"> Veras Negócios e Investimentos Ltda
 </t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>6870</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>0103009196900000</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>RUA FORTALEZA,N. 188 CS 02, CARARU - CEP: 61779-480, EUSEBIO - CEARA</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-loteamento-hipica-park-4-quartos-area-de-servico-6-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1494273-1444403298450-venda-direta-caixa</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>292760</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>129.59</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>292760</v>
-      </c>
-      <c r="H24" t="n">
-        <v>625114.36</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>10/02/2024</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>27/02/2024</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>07/03/2024</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Extrajudicial</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Baldissera Leiloeiros </t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>9273</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>RUA BEIRA RIO N. 94 A 0/URUCU NEMA</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-casa-129-59-m2-de-area-total-imovel-caixa-economica-federal-cef-1598107</t>
         </is>
       </c>
     </row>
@@ -2289,71 +2289,64 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700000</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>306204</v>
+      </c>
+      <c r="C25" t="n">
+        <v>342</v>
+      </c>
       <c r="D25" t="n">
-        <v>206.09</v>
+        <v>173.83</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="n">
-        <v>700000</v>
-      </c>
-      <c r="H25" t="n">
-        <v>764480.91</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>474000</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>25/03/2024</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>03/04/2024</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Leilão SFI Caixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GP Leilões </t>
+          <t xml:space="preserve"> Veras Negócios e Investimentos Ltda
+</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>10845</t>
+          <t>7716</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>40768</t>
+          <t>27019</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>RUA INDUSTRIAL AMILCAR ARAUJO,N. 735 CASA 04, COITE - CEP: 61765-140, EUSEBIO - CEARA</t>
+          <t>RUA 02,N. S/N QD 11, LT 28, PRECABURA - CEP: 61760-000, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-casa-206-09m-de-area-privativa-bairro-coite-eusebio-ce-imovel-caixa-economica-federal-cef-1597454</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-loteamento-hipica-park-4-quartos-area-de-servico-3-wc-sala-cozinha-dois-imovel-caixa-economica-federal-cef-1298447-1444408795193-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -2364,23 +2357,21 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286000</v>
+        <v>700000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>112.82</v>
+        <v>206.09</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>286000</v>
+        <v>700000</v>
       </c>
       <c r="H26" t="n">
-        <v>431482.19</v>
+        <v>764480.91</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2389,18 +2380,18 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>03/04/2024</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2410,74 +2401,74 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> O Leilões </t>
+          <t xml:space="preserve"> GP Leilões </t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>8272</t>
+          <t>10845</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40768</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>RUA C, NO LUGAR ENCANTADA (ANTIGO JURUCUTUOCA), DENOMINADO VILLAGE DIVISA, COM UMA ÁREA CONSTRUÍDA DE 112,82M², ENCRAVADA EM 50% DO LOTE 14 DA QD 01, DO TERRENO SITUADO NO LUGAR SITIO JURUCUTUOCA, NO MUNICÍPIO E COMARCA DE EUSÉBIO, ESTADO DO CEÁRA, COM DEMAIS CONFRONTAÇÕES, MEDIÇÕES E CARACTERÍSTICA</t>
+          <t>RUA INDUSTRIAL AMILCAR ARAUJO,N. 735 CASA 04, COITE - CEP: 61765-140, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-imovel-residencial-na-rua-thomas-edison-eusebio-imovel-caixa-economica-federal-cef-1602695</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-casa-206-09m-de-area-privativa-bairro-coite-eusebio-ce-imovel-caixa-economica-federal-cef-1597454</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Apartamento</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165000</v>
+        <v>286000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>40.83</v>
+        <v>112.82</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>165000</v>
+        <v>286000</v>
       </c>
       <c r="H27" t="n">
-        <v>152883.9</v>
+        <v>431482.19</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>7.343090909090913</v>
+        <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>28/05/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>06/06/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2487,100 +2478,122 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rocha Leilões </t>
+          <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>23862</t>
+          <t>8272</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0101000000100431</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>ALAMEDA VERDE,N. 280 APTO. 303 BL 22, COACU - CEP: 61771-800, EUSEBIO - CEARA</t>
+          <t>RUA C, NO LUGAR ENCANTADA (ANTIGO JURUCUTUOCA), DENOMINADO VILLAGE DIVISA, COM UMA ÁREA CONSTRUÍDA DE 112,82M², ENCRAVADA EM 50% DO LOTE 14 DA QD 01, DO TERRENO SITUADO NO LUGAR SITIO JURUCUTUOCA, NO MUNICÍPIO E COMARCA DE EUSÉBIO, ESTADO DO CEÁRA, COM DEMAIS CONFRONTAÇÕES, MEDIÇÕES E CARACTERÍSTICA</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-eusebio-ce-imovel-caixa-economica-federal-cef-1621214</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-imovel-residencial-na-rua-thomas-edison-eusebio-imovel-caixa-economica-federal-cef-1602695</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245000</v>
+        <v>165000</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>40.83</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
       <c r="G28" t="n">
-        <v>245000</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>165000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>152883.9</v>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>7.343090909090913</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Venda Direta</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Graça Medeiros Leilões </t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="inlineStr"/>
+          <t xml:space="preserve"> Rocha Leilões </t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>23862</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0101000000100431</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>ALAMEDA VERDE,N. 280 APTO. 303 BL 22, COACU - CEP: 61771-800, EUSEBIO - CEARA</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-imovel-imovel-1484141</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-eusebio-ce-imovel-caixa-economica-federal-cef-1621214</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Terreno</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72000</v>
+        <v>245000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>72000</v>
+        <v>245000</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2590,13 +2603,13 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>30/10/2021</t>
+          <t>14/10/2023</t>
         </is>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>12/11/2021</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2614,32 +2627,28 @@
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>TERRENO SITUADO NO LUGAR PUCABA, DISTRITO DE EUSÉBIO DESTA COMARCA (ENDEREÇO ATUAL, RUA LEOPOLDO VÁGNER, S.N., QUASE ESQUINA COM MAJOR CUNHA, LOTEAMENTO, “PARQUE BRISAMAR”)</t>
-        </is>
-      </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/terreno-terreno-situado-no-lugar-pucaba-distrito-de-eusebio-ce-imovel-837807</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-imovel-imovel-1484141</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>210000</v>
+        <v>72000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>210000</v>
+        <v>72000</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2675,32 +2684,30 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>SITUADO NO LUGAR “TAMATANDUBA’, NO MUNICÍPIO DO EUSÉBIO/CE, NO LOTEAMENTO DENOMINADO “CHÁCARAS BELVEDERE”</t>
+          <t>TERRENO SITUADO NO LUGAR PUCABA, DISTRITO DE EUSÉBIO DESTA COMARCA (ENDEREÇO ATUAL, RUA LEOPOLDO VÁGNER, S.N., QUASE ESQUINA COM MAJOR CUNHA, LOTEAMENTO, “PARQUE BRISAMAR”)</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/outros-imovel-no-tamatanduba-eusebio-ce-imovel-837804</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/terreno-terreno-situado-no-lugar-pucaba-distrito-de-eusebio-ce-imovel-837807</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Terreno</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3814525.8</v>
+        <v>210000</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
-        <v>6503.06</v>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>3814525.8</v>
+        <v>210000</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2736,10 +2743,71 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
+          <t>SITUADO NO LUGAR “TAMATANDUBA’, NO MUNICÍPIO DO EUSÉBIO/CE, NO LOTEAMENTO DENOMINADO “CHÁCARAS BELVEDERE”</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/outros-imovel-no-tamatanduba-eusebio-ce-imovel-837804</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Terreno</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3814525.8</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>6503.06</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>3814525.8</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>30/10/2021</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>12/11/2021</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Venda Direta</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Graça Medeiros Leilões </t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
           <t>TERRENO URBANO SITUADO NO LUGAR DENOMINADO JABUTI, NO MUNICÍPIO DE EUSÉBIO/CE, LOCALIZADO DO LADO ÍMPAR DA RUA DOS MORAIS, CEARÁ</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/terreno-terreno-no-jabuti-eusebio-ce-imovel-837803</t>
         </is>

--- a/output/planilhas/leilaoimoveis_eusebio-ce.xlsx
+++ b/output/planilhas/leilaoimoveis_eusebio-ce.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>RUA SANTO ANTONIO N 22 22,N. 22 0, CENTRO - CEP: 61760-335, EUSEBIO - CEARA</t>
+          <t>RUA SANTO ANTONIO N 22 22,N. 22, CENTRO - CEP: 61760-335, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>RUA NOSSA SENHORA APARECIDA N 165 B,N. 165 0, GUARIBAS - CEP: 61763-080, EUSEBIO - CEARA</t>
+          <t>RUA NOSSA SENHORA APARECIDA N 165 B,N. 165, GUARIBAS - CEP: 61763-080, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>RUA A N 139 A 0828LOT CHACARA DO EUSEBIO,N. 139 0, URUCUNEMA - CEP: 61760-000, EUSEBIO - CEARA</t>
+          <t>RUA A N 139 A 0828LOT CHACARA DO EUSEBIO,N. 139, URUCUNEMA - CEP: 61760-000, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>RUA PRIMAVERA N SN 24,N. 24 0, URUCUNEMA - CEP: 61762-850, EUSEBIO - CEARA</t>
+          <t>RUA PRIMAVERA N SN 24,N. 24, URUCUNEMA - CEP: 61762-850, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>RUA PRIMAVERA N SN 34,N. 34 0, URUCUNEMA - CEP: 61762-850, EUSEBIO - CEARA</t>
+          <t>RUA PRIMAVERA N SN 34,N. 34, URUCUNEMA - CEP: 61762-850, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -997,19 +997,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>165000</v>
       </c>
-      <c r="C8" t="n">
-        <v>128</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>71.02</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>53.11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
@@ -1017,27 +1017,27 @@
         <v>165000</v>
       </c>
       <c r="H8" t="n">
-        <v>150821.07</v>
+        <v>167929.82</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>8.593290909090905</v>
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>26/02/2024</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>06/05/2024</t>
+          <t>29/04/2024</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>15/05/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1052,22 +1052,22 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>10329</t>
+          <t>10292</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>38155</t>
+          <t>40372</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>RUA VEREDA TROPICAL,N. 167 0, VEREDA TROPICAL - CEP: 61761-890, EUSEBIO - CEARA</t>
+          <t>RUA EZEQUIEL CAMPINA N 975 102 A,N. 975 APTO. 102 BLOCO A, TAMATANDUBA - CEP: 61768-600, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-vereda-tropical-2-vagas-na-garagem-imovel-caixa-economica-federal-cef-1622250-8444409085554-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-campina-verde-4-quartos-2-vagas-na-garagem-3-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1613972-1555533401709-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1078,23 +1078,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165000</v>
+        <v>151559</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>53.11</v>
+        <v>40.83</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>165000</v>
+        <v>151559</v>
       </c>
       <c r="H9" t="n">
-        <v>167929.82</v>
+        <v>162874.37</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1129,22 +1129,22 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>10292</t>
+          <t>53395</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>40372</t>
+          <t>000051204</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>RUA EZEQUIEL CAMPINA N 975 102 A,N. 975 APTO. 102 BLOCO A, TAMATANDUBA - CEP: 61768-600, EUSEBIO - CEARA</t>
+          <t>ALAMEDA VERDE N 280 502 3,N. 280 APTO. 502 05 ANDAR BLOCO 3, COACU - CEP: 61771-800, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-campina-verde-4-quartos-2-vagas-na-garagem-3-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1613972-1555533401709-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-res-eco-way-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1613971-1787701109977-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1155,23 +1155,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151559</v>
+        <v>150000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>40.83</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
+        <v>41.85</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>151559</v>
+        <v>150000</v>
       </c>
       <c r="H10" t="n">
-        <v>162874.37</v>
+        <v>162163.09</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1180,18 +1176,18 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>14/02/2024</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>29/04/2024</t>
+          <t>02/04/2024</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>11/04/2024</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1206,22 +1202,22 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>53395</t>
+          <t>17494</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>000051204</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>ALAMEDA VERDE N 280 502 3,N. 280 APTO. 502 05 ANDAR BLOCO 3, COACU - CEP: 61771-800, EUSEBIO - CEARA</t>
+          <t>RUA ALAMEDA VERDE N 100 AP501 BL3,N. 100 APTO. 501 BL 3, COACU - CEP: 61771-800, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-res-eco-way-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1613971-1787701109977-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-residencial-eco-fit-imovel-caixa-economica-federal-cef-1600162-8787702883771-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1232,24 +1228,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+        <v>49.21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="H11" t="n">
-        <v>162163.09</v>
+        <v>151308.67</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15.93962777777777</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>17494</t>
+          <t>21556</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>RUA ALAMEDA VERDE N 100 AP501 BL3,N. 100 APTO. 501 BL 3, COACU - CEP: 61771-800, EUSEBIO - CEARA</t>
+          <t>AVENIDA BRASILIA N 279 504 4,N. 279 APTO. 504 BL 4, CENTRO - CEP: 61760-400, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-residencial-eco-fit-imovel-caixa-economica-federal-cef-1600162-8787702883771-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600161-8787710382328-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>180000</v>
+        <v>183000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
@@ -1318,15 +1318,15 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>180000</v>
+        <v>183000</v>
       </c>
       <c r="H12" t="n">
-        <v>151308.67</v>
+        <v>146846.01</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>15.93962777777777</v>
+        <v>19.75627868852458</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>21556</t>
+          <t>21729</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>AVENIDA BRASILIA N 279 504 4,N. 279 APTO. 504 BL 4, CENTRO - CEP: 61760-400, EUSEBIO - CEARA</t>
+          <t>AVENIDA BRASILIA N 279 504 8,N. 279 APTO. 504 BL 8, CENTRO - CEP: 61760-400, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600161-8787710382328-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600160-8787711184945-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1382,28 +1382,26 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183000</v>
+        <v>163000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>49.21</v>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>183000</v>
+        <v>163000</v>
       </c>
       <c r="H13" t="n">
-        <v>146846.01</v>
+        <v>188664.1</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>19.75627868852458</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1433,7 +1431,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>21729</t>
+          <t>21682</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1443,12 +1441,12 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>AVENIDA BRASILIA N 279 504 8,N. 279 APTO. 504 BL 8, CENTRO - CEP: 61760-400, EUSEBIO - CEARA</t>
+          <t>AVENIDA BRASILIA N 279 BL 07 AP 40,N. 279 APTO. 403 BL 7, CENTRO - CEP: 61760-000, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600160-8787711184945-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-1-vaga-na-garagem-imovel-caixa-economica-federal-cef-1600159-1787700998093-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1457,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>163000</v>
+        <v>185000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
@@ -1470,15 +1468,15 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>163000</v>
+        <v>185000</v>
       </c>
       <c r="H14" t="n">
-        <v>188664.1</v>
+        <v>147266.27</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>20.39661081081082</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1508,7 +1506,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>21682</t>
+          <t>21470</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1518,12 +1516,12 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>AVENIDA BRASILIA N 279 BL 07 AP 40,N. 279 APTO. 403 BL 7, CENTRO - CEP: 61760-000, EUSEBIO - CEARA</t>
+          <t>AVENIDA BRASILIA N 279 BL2 APTO 4,N. 279 APTO. 406 BL 2, CENTRO - CEP: 61760-400, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-1-vaga-na-garagem-imovel-caixa-economica-federal-cef-1600159-1787700998093-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-1-vaga-na-garagem-imovel-caixa-economica-federal-cef-1600158-8787708688652-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1534,26 +1532,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>185000</v>
+        <v>145000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>49.21</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>41.85</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>185000</v>
+        <v>145000</v>
       </c>
       <c r="H15" t="n">
-        <v>147266.27</v>
+        <v>157819.48</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>20.39661081081082</v>
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>21470</t>
+          <t>17623</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>AVENIDA BRASILIA N 279 BL2 APTO 4,N. 279 APTO. 406 BL 2, CENTRO - CEP: 61760-400, EUSEBIO - CEARA</t>
+          <t>RUA ALAMEDA VERDE N 100 201 08,N. 100 APTO. 501 BL 8, COACU - CEP: 61771-800, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-1-vaga-na-garagem-imovel-caixa-economica-federal-cef-1600158-8787708688652-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-residencial-eco-fit-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600156-8787703445018-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1609,11 +1609,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145000</v>
+        <v>192000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>41.85</v>
+        <v>49.21</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1622,15 +1622,15 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>145000</v>
+        <v>192000</v>
       </c>
       <c r="H16" t="n">
-        <v>157819.48</v>
+        <v>144435.83</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>24.77300520833334</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>17623</t>
+          <t>21658</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>RUA ALAMEDA VERDE N 100 201 08,N. 100 APTO. 501 BL 8, COACU - CEP: 61771-800, EUSEBIO - CEARA</t>
+          <t>AVENIDA BRASILIA N 279 101 07,N. 279 APTO. 101 BL 7, PARQUE HAWAI - CEP: 61761-210, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-residencial-eco-fit-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600156-8787703445018-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600154-8787711043624-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192000</v>
+        <v>191235.16</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
@@ -1699,15 +1699,15 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>192000</v>
+        <v>191235.16</v>
       </c>
       <c r="H17" t="n">
-        <v>144435.83</v>
+        <v>174808.08</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>24.77300520833334</v>
+        <v>8.589989414080556</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>21658</t>
+          <t>21493</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>AVENIDA BRASILIA N 279 101 07,N. 279 APTO. 101 BL 7, PARQUE HAWAI - CEP: 61761-210, EUSEBIO - CEARA</t>
+          <t>AVENIDA BRASILIA N 279 205 3,N. 279 APTO. 205 BL 3, PARQUE HAWAI - CEP: 61761-210, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600154-8787711043624-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600153-1787701001432-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>191235.16</v>
+        <v>180000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
@@ -1776,15 +1776,15 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>191235.16</v>
+        <v>180000</v>
       </c>
       <c r="H18" t="n">
-        <v>174808.08</v>
+        <v>159016.64</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>8.589989414080556</v>
+        <v>11.65742222222221</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>21493</t>
+          <t>21509</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>AVENIDA BRASILIA N 279 205 3,N. 279 APTO. 205 BL 3, PARQUE HAWAI - CEP: 61761-210, EUSEBIO - CEARA</t>
+          <t>AVENIDA BRASILIA N 279 405 03,N. 279 APTO. 405 BL 3, PARQUE HAWAI - CEP: 61760-000, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600153-1787701001432-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600152-8787711332839-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1840,11 +1840,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180000</v>
+        <v>156000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>49.21</v>
+        <v>53.86</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1853,15 +1853,15 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>180000</v>
+        <v>156000</v>
       </c>
       <c r="H19" t="n">
-        <v>159016.64</v>
+        <v>188241.59</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>11.65742222222221</v>
+        <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>21509</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1901,39 +1901,37 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>AVENIDA BRASILIA N 279 405 03,N. 279 APTO. 405 BL 3, PARQUE HAWAI - CEP: 61760-000, EUSEBIO - CEARA</t>
+          <t>AVENIDA CORONEL CICERO SA N 990 107 11APARTAMENTO,N. 990 APTO. 107 BL 11, PARQUE HAWAI - CEP: 61761-390, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-2-quartos-1-vaga-na-garagem-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600152-8787711332839-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-quartos-1-vaga-na-garagem-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600151-8787704947718-venda-direta-caixa</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Apartamento</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>156000</v>
+        <v>181000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>53.86</v>
+        <v>59.72</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>156000</v>
+        <v>181000</v>
       </c>
       <c r="H20" t="n">
-        <v>188241.59</v>
+        <v>186362.61</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1968,7 +1966,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>8982</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1978,12 +1976,12 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>AVENIDA CORONEL CICERO SA N 990 107 11APARTAMENTO,N. 990 APTO. 107 BL 11, PARQUE HAWAI - CEP: 61761-390, EUSEBIO - CEARA</t>
+          <t>RUA PRIMAVERA N SN 06 CASA SEIS,N. S/N, URUCUNEMA - CEP: 61762-850, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-gran-village-2-quartos-1-vaga-na-garagem-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600151-8787704947718-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-primavera-2-quartos-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600150-8555526191611-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -1994,21 +1992,23 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>181000</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>156618</v>
+      </c>
+      <c r="C21" t="n">
+        <v>300</v>
+      </c>
       <c r="D21" t="n">
-        <v>59.72</v>
+        <v>73.16</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>181000</v>
+        <v>156618</v>
       </c>
       <c r="H21" t="n">
-        <v>186362.61</v>
+        <v>251901.14</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2023,12 +2023,12 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>02/04/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>10/04/2024</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2043,22 +2043,22 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>8982</t>
+          <t>8567</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37002</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>RUA PRIMAVERA N SN 06 CASA SEIS,N. S/N 0, URUCUNEMA - CEP: 61762-850, EUSEBIO - CEARA</t>
+          <t>RUA LUIS GONZAGA N 155,N. 155, VEREDA TROPICAL - CEP: 61762-090, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cond-primavera-2-quartos-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600150-8555526191611-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-lot-vereda-tropical-3-quartos-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600146-1444405331919-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -2069,73 +2069,64 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156618</v>
+        <v>297160</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D22" t="n">
-        <v>73.16</v>
+        <v>158.7</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>156618</v>
-      </c>
-      <c r="H22" t="n">
-        <v>251901.14</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>460000</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>35.4</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>10/04/2024</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Leilão SFI Caixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Leilão Caixa </t>
+          <t xml:space="preserve"> Veras Negócios e Investimentos Ltda
+</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>8567</t>
+          <t>6870</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>37002</t>
+          <t>0103009196900000</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>RUA LUIS GONZAGA N 155,N. 155 0, VEREDA TROPICAL - CEP: 61762-090, EUSEBIO - CEARA</t>
+          <t>RUA FORTALEZA,N. 188 CS 02, CARARU - CEP: 61779-480, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-lot-vereda-tropical-3-quartos-2-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1600146-1444405331919-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-loteamento-hipica-park-4-quartos-area-de-servico-6-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1494273-1444403298450-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -2146,71 +2137,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>136500</v>
+        <v>306204</v>
       </c>
       <c r="C23" t="n">
-        <v>244.2</v>
+        <v>342</v>
       </c>
       <c r="D23" t="n">
-        <v>78.77</v>
+        <v>173.83</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>136500</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>210000</v>
+        <v>474000</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>08/05/2023</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>10/04/2024</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Leilão SFI Caixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Leilão Caixa </t>
+          <t xml:space="preserve"> Veras Negócios e Investimentos Ltda
+</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>7716</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>40207</t>
+          <t>27019</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>RUA R SANTA CATARINA, N. 231, 216LOTEAMENTO PARQUE,N. 231 0, PARQUE HAWAI - CEP: 61761-240, EUSEBIO - CEARA</t>
+          <t>RUA 02,N. S/N QD 11, LT 28, PRECABURA - CEP: 61760-000, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-lagoinha-2-quartos-1-vaga-na-garagem-2-wc-sala-cozinha-indisponibilid-imovel-caixa-economica-federal-cef-1551855-1444407913184-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-loteamento-hipica-park-4-quartos-area-de-servico-3-wc-sala-cozinha-dois-imovel-caixa-economica-federal-cef-1298447-1444408795193-venda-direta-caixa</t>
         </is>
       </c>
     </row>
@@ -2221,64 +2205,71 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>297160</v>
-      </c>
-      <c r="C24" t="n">
-        <v>180</v>
-      </c>
+        <v>700000</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>158.7</v>
+        <v>206.09</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
-        <v>460000</v>
-      </c>
+      <c r="G24" t="n">
+        <v>700000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>764480.91</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>10/02/2024</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Venda Direta Caixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Veras Negócios e Investimentos Ltda
-</t>
+          <t xml:space="preserve"> GP Leilões </t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>6870</t>
+          <t>10845</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0103009196900000</t>
+          <t>40768</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>RUA FORTALEZA,N. 188 CS 02, CARARU - CEP: 61779-480, EUSEBIO - CEARA</t>
+          <t>RUA INDUSTRIAL AMILCAR ARAUJO,N. 735 CASA 04, COITE - CEP: 61765-140, EUSEBIO - CEARA</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-loteamento-hipica-park-4-quartos-area-de-servico-6-wc-sala-cozinha-imovel-caixa-economica-federal-cef-1494273-1444403298450-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-casa-206-09m-de-area-privativa-bairro-coite-eusebio-ce-imovel-caixa-economica-federal-cef-1597454</t>
         </is>
       </c>
     </row>
@@ -2289,30 +2280,30 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>306204</v>
-      </c>
-      <c r="C25" t="n">
-        <v>342</v>
-      </c>
+        <v>136500</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>173.83</v>
+        <v>78.77</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>474000</v>
+        <v>210000</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -2320,33 +2311,32 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Venda Direta Caixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Veras Negócios e Investimentos Ltda
-</t>
+          <t xml:space="preserve"> RJ Leilões </t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>7716</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>27019</t>
+          <t>40207</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>RUA 02,N. S/N QD 11, LT 28, PRECABURA - CEP: 61760-000, EUSEBIO - CEARA</t>
+          <t>RUA SANTA CATARINA, N. 231- LAGOINHA</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-loteamento-hipica-park-4-quartos-area-de-servico-3-wc-sala-cozinha-dois-imovel-caixa-economica-federal-cef-1298447-1444408795193-venda-direta-caixa</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-casa-em-eusebio-ce-imovel-caixa-economica-federal-cef-1635813</t>
         </is>
       </c>
     </row>
@@ -2357,22 +2347,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>700000</v>
+        <v>165000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>206.09</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>71.02</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
       <c r="G26" t="n">
-        <v>700000</v>
-      </c>
-      <c r="H26" t="n">
-        <v>764480.91</v>
-      </c>
+        <v>165000</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -2380,20 +2368,16 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>10/02/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>03/04/2024</t>
-        </is>
-      </c>
+          <t>06/05/2024</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Leilão SFI Caixa</t>
@@ -2401,27 +2385,27 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GP Leilões </t>
+          <t xml:space="preserve"> Norte Leilões </t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>10845</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>40768</t>
+          <t>38155</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>RUA INDUSTRIAL AMILCAR ARAUJO,N. 735 CASA 04, COITE - CEP: 61765-140, EUSEBIO - CEARA</t>
+          <t>RUA VEREDA TROPICAL N. 167 0, Nº 1670, VEREDA TROPICAL, EUSEBIO - CE, CEP 61.761-890</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-casa-206-09m-de-area-privativa-bairro-coite-eusebio-ce-imovel-caixa-economica-federal-cef-1597454</t>
+          <t>https://www.leilaoimovel.com.br/imovel/ce/eusebio/residencial-cx-7413-eusebio-ce-casa-em-eusebio-ce-imovel-caixa-economica-federal-cef-1634601</t>
         </is>
       </c>
     </row>
